--- a/data/trans_dic/P25A$medico-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2864242682056065</v>
+        <v>0.2860946115906018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1284429059589713</v>
+        <v>0.1331934849088834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1544598517102847</v>
+        <v>0.15089829386711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01738842955125908</v>
+        <v>0.01749379699693573</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05351925508348171</v>
+        <v>0.05268142925849808</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07638045570194159</v>
+        <v>0.06627417972816006</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2100514192445655</v>
+        <v>0.2163468253169592</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.117156190095004</v>
+        <v>0.120584835503625</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.141086627817854</v>
+        <v>0.1338583108897917</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4572766187605614</v>
+        <v>0.456565681950166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2412133799113134</v>
+        <v>0.2380592624798183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2744303688487078</v>
+        <v>0.2760644901451059</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1272241732277824</v>
+        <v>0.1575379383033454</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1631628446054721</v>
+        <v>0.1634132694568864</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2114325864610424</v>
+        <v>0.2098034287822921</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3432468649649801</v>
+        <v>0.3523182498783198</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1949107160854705</v>
+        <v>0.1986064843377931</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.234409638929173</v>
+        <v>0.2308995423241834</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2367232600534183</v>
+        <v>0.2306257645629521</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1673399599235834</v>
+        <v>0.1708027837534943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1363088840227647</v>
+        <v>0.1425176361960613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07516425877004805</v>
+        <v>0.08014891793234229</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04384070898622341</v>
+        <v>0.04116620517049186</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03550976984948507</v>
+        <v>0.03400354989181127</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2122912374089797</v>
+        <v>0.2112972060502573</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1380869442429354</v>
+        <v>0.1392593699431709</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1144556968102518</v>
+        <v>0.1106261595966148</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3693698805421421</v>
+        <v>0.369322498997653</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2802896621185774</v>
+        <v>0.2791634940058833</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2605818728382712</v>
+        <v>0.2653615725552653</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2456944723697694</v>
+        <v>0.2500353004613577</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1439650193530589</v>
+        <v>0.1474571608208299</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1503480647675055</v>
+        <v>0.1545678840481157</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3142046025665845</v>
+        <v>0.3121024679461771</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2222326274832816</v>
+        <v>0.224051791259598</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2017331305864188</v>
+        <v>0.2022890155623177</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1379636151160109</v>
+        <v>0.1361779822514088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1591633927203989</v>
+        <v>0.1600440690699683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1358945814760833</v>
+        <v>0.136092460240753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01388821358997787</v>
+        <v>0.01364353356052322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03009856885640427</v>
+        <v>0.03082350374641917</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03861680093145904</v>
+        <v>0.03789889310121975</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1109444316475527</v>
+        <v>0.1138387051021235</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1285950587402393</v>
+        <v>0.1300936034419381</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1193250583766586</v>
+        <v>0.1151922975483418</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2376827383926156</v>
+        <v>0.2385054561464427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2704847466656832</v>
+        <v>0.2721318898302872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2757088213423378</v>
+        <v>0.2643729922713764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1308697233266608</v>
+        <v>0.1299071793778228</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1293706908305573</v>
+        <v>0.1389907127966862</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1712746014722559</v>
+        <v>0.1713797425384409</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1903521898222035</v>
+        <v>0.1917042361447046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2138523743760224</v>
+        <v>0.2141340287982015</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2139371737162381</v>
+        <v>0.2120562317114847</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1732115933258397</v>
+        <v>0.1714072715999934</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0596118350183328</v>
+        <v>0.06687623197424811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09336305399976082</v>
+        <v>0.09038581943732145</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03741773290920753</v>
+        <v>0.02394932763583198</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01400893882141327</v>
+        <v>0.01391732154397313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1300944229224632</v>
+        <v>0.1287057322093419</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06657696989052607</v>
+        <v>0.07335860826481629</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07122810399726222</v>
+        <v>0.07152895702302084</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3757362847173777</v>
+        <v>0.365175105901662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1842074025586305</v>
+        <v>0.1963650832685538</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2416931583278824</v>
+        <v>0.2422802872203323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2192899004221783</v>
+        <v>0.1708927564525164</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2660821040932869</v>
+        <v>0.2717004216584877</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1389012558963793</v>
+        <v>0.1228374632640779</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2785021035031331</v>
+        <v>0.2914523623553604</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1774351983777894</v>
+        <v>0.1850735321051946</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1683134217280454</v>
+        <v>0.167161172118714</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.233303314274939</v>
+        <v>0.2340147169290155</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1671502042161955</v>
+        <v>0.1679614132968525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1599592549198922</v>
+        <v>0.1590116146707299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05275108059294829</v>
+        <v>0.04965614451738483</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06006292986040491</v>
+        <v>0.0622648405697025</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06065284537555097</v>
+        <v>0.06344467573705093</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1909281877182916</v>
+        <v>0.1881715770946988</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1391422392103007</v>
+        <v>0.1404841431262165</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1326728185026939</v>
+        <v>0.1335471628541635</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3011601363999467</v>
+        <v>0.3035658243202483</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2236693727073535</v>
+        <v>0.2257777149058281</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2253151895414923</v>
+        <v>0.2239167293535961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1209531437388146</v>
+        <v>0.1190766336196674</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1206959702970213</v>
+        <v>0.1238149025945198</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1239347374163196</v>
+        <v>0.1270283784640497</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2433138193637778</v>
+        <v>0.2431675567631517</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1815933515787297</v>
+        <v>0.1832720451703962</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1799510251884055</v>
+        <v>0.1830748589383095</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35934</v>
+        <v>35892</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27430</v>
+        <v>28445</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27849</v>
+        <v>27207</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6060</v>
+        <v>5965</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7071</v>
+        <v>6136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37226</v>
+        <v>38342</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38285</v>
+        <v>39406</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>38500</v>
+        <v>36528</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57368</v>
+        <v>57279</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51514</v>
+        <v>50840</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49480</v>
+        <v>49775</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6586</v>
+        <v>8155</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18474</v>
+        <v>18503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19575</v>
+        <v>19424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60831</v>
+        <v>62439</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63694</v>
+        <v>64902</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63966</v>
+        <v>63008</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46622</v>
+        <v>45421</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43047</v>
+        <v>43938</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22013</v>
+        <v>23016</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5297</v>
+        <v>5648</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5520</v>
+        <v>5184</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3302</v>
+        <v>3162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>56769</v>
+        <v>56504</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>52910</v>
+        <v>53359</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29128</v>
+        <v>28153</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72746</v>
+        <v>72737</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>72102</v>
+        <v>71813</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42082</v>
+        <v>42854</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17313</v>
+        <v>17619</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18128</v>
+        <v>18568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13982</v>
+        <v>14374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>84022</v>
+        <v>83460</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>85151</v>
+        <v>85848</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51339</v>
+        <v>51480</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30078</v>
+        <v>29689</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37457</v>
+        <v>37664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21112</v>
+        <v>21142</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2943</v>
+        <v>3014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3132</v>
+        <v>3074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33800</v>
+        <v>34682</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42836</v>
+        <v>43335</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28216</v>
+        <v>27239</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51818</v>
+        <v>51998</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63654</v>
+        <v>64042</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42832</v>
+        <v>41071</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11339</v>
+        <v>11255</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12649</v>
+        <v>13589</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13892</v>
+        <v>13901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>57992</v>
+        <v>58404</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>71235</v>
+        <v>71329</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>50588</v>
+        <v>50143</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13484</v>
+        <v>13344</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6181</v>
+        <v>6934</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9680</v>
+        <v>9371</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1823</v>
+        <v>1167</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14768</v>
+        <v>14611</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10146</v>
+        <v>11180</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12096</v>
+        <v>12147</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29251</v>
+        <v>28429</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19100</v>
+        <v>20360</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25059</v>
+        <v>25120</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7823</v>
+        <v>6096</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12962</v>
+        <v>13236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9187</v>
+        <v>8124</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31616</v>
+        <v>33086</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27041</v>
+        <v>28206</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28583</v>
+        <v>28387</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>144244</v>
+        <v>144683</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>135362</v>
+        <v>136019</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>96108</v>
+        <v>95539</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12900</v>
+        <v>12143</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>23162</v>
+        <v>24011</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20187</v>
+        <v>21116</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>164735</v>
+        <v>162357</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>166338</v>
+        <v>167943</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>123871</v>
+        <v>124687</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>186197</v>
+        <v>187684</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>181133</v>
+        <v>182840</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135376</v>
+        <v>134536</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29579</v>
+        <v>29120</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>46544</v>
+        <v>47747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41249</v>
+        <v>42278</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>209934</v>
+        <v>209808</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>217087</v>
+        <v>219094</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>168012</v>
+        <v>170929</v>
       </c>
     </row>
     <row r="24">
